--- a/Эскиз формы front end.xlsx
+++ b/Эскиз формы front end.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sharonov\Work\Repo\Arduino\AccLoad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Sharonov\Repo\Arduino\AccLoad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170FF5A-6A93-4B53-84BA-3E34C0F702FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74F01A6-5A23-47BE-8DE1-5449A358F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>U=8,4 В</t>
   </si>
@@ -97,6 +106,15 @@
   </si>
   <si>
     <t>ОТКЛЮЧЁН</t>
+  </si>
+  <si>
+    <t>U=8,42 В</t>
+  </si>
+  <si>
+    <t>U=0 В</t>
+  </si>
+  <si>
+    <t>I=0 А</t>
   </si>
 </sst>
 </file>
@@ -106,12 +124,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -183,13 +209,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,12 +265,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,195 +557,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>45009.572916666664</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B5" s="3">
         <v>45009.572916666664</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C5" s="3">
         <v>45009.572916666664</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E5" s="3">
         <v>45009.572916666664</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F5" s="3">
         <v>45009.572916666664</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G5" s="3">
         <v>45009.572916666664</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H5" s="3">
         <v>45009.572916666664</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45009.659722222219</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45009.576388888891</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45009.659722222219</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <f>A7-A3</f>
-        <v>8.6805555554747116E-2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <f>E7-E3</f>
-        <v>8.6805555554747116E-2</v>
+      <c r="A9" s="3">
+        <v>45009.659722222219</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45009.576388888891</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45009.659722222219</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -692,27 +774,29 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
+      <c r="A11" s="4">
+        <f>A9-A5</f>
+        <v>8.6805555554747116E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <f>E9-E5</f>
+        <v>8.6805555554747116E-2</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -720,13 +804,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -734,13 +818,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -748,67 +832,95 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
